--- a/AutomationRobo/Data/Config.xlsx
+++ b/AutomationRobo/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationRobo\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitin.verma\Desktop\UIPath-Project\AutomationRobo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C5F30B-949D-44F8-9943-9D38BE40D034}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC012D37-6DB9-49EA-A43C-75C83C355FFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -430,16 +430,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="68.5703125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="68.5546875" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1491,16 +1491,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/AutomationRobo/Data/Config.xlsx
+++ b/AutomationRobo/Data/Config.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitin.verma\Desktop\UIPath-Project\AutomationRobo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC012D37-6DB9-49EA-A43C-75C83C355FFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7073A7F9-A54B-4589-8C7B-E2444FF9D9F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
+    <sheet name="EmailCred" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -60,12 +61,24 @@
   <si>
     <t>URL of application</t>
   </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>damcotestuser@gmail.com</t>
+  </si>
+  <si>
+    <t>test@123456</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -84,6 +97,13 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -110,10 +130,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1491,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2564,4 +2588,40 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7039102-B6BD-4D28-ACC9-8EF0F976492E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>